--- a/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
+++ b/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NMT\nmt-workspace\mla\module\Inventory\test\InventoryTest\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Items\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ECC806-0E1D-4666-8C7A-973F0100FF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849036F5-CDBB-4F1A-800C-48A27B47DF09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>SKU</t>
   </si>
@@ -62,9 +62,6 @@
     <t>HS Code</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Std.Uom</t>
   </si>
   <si>
@@ -83,26 +80,53 @@
     <t>Purchase CF</t>
   </si>
   <si>
-    <t>Folder Plain Bias Binder(123A9/508)</t>
-  </si>
-  <si>
-    <t>in 1-1/4 out 5/16(MH)</t>
-  </si>
-  <si>
-    <t>in 1-3/4 out 1/2(MH)</t>
-  </si>
-  <si>
-    <t>6-69</t>
-  </si>
-  <si>
-    <t>6-70</t>
+    <t>3-66</t>
+  </si>
+  <si>
+    <t>7-110</t>
+  </si>
+  <si>
+    <t>25-113</t>
+  </si>
+  <si>
+    <t>27-9</t>
+  </si>
+  <si>
+    <t>27-10</t>
+  </si>
+  <si>
+    <t>IC card For PS800</t>
+  </si>
+  <si>
+    <t>Cooling fan case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw blade For wooden </t>
+  </si>
+  <si>
+    <t>GARMENT NEEDLE FEED</t>
+  </si>
+  <si>
+    <t>Presser Foot &amp; Joint &amp; Screw</t>
+  </si>
+  <si>
+    <t>A-86577 (Makita )</t>
+  </si>
+  <si>
+    <t>NIS-DSC246U-G</t>
+  </si>
+  <si>
+    <t>CHO-B1551-586-000</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,12 +134,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -145,18 +163,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -175,12 +196,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O3" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O6" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="15">
-    <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{D908201F-7F52-4EE2-BB50-EC4F5D942D16}" name="SKU1"/>
     <tableColumn id="5" xr3:uid="{5640FECF-A8D7-46BB-91F5-E72178177173}" name="ItemName"/>
-    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code"/>
     <tableColumn id="8" xr3:uid="{DE091E02-DD7D-43F9-9F96-1231B66D170D}" name="Mfg Model"/>
     <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N"/>
@@ -484,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBC371-E2D8-4342-8539-7DF09C777E3F}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -497,7 +518,7 @@
     <col min="3" max="3" width="76.7109375" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1" outlineLevel="1"/>
@@ -508,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -535,36 +556,36 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40228361</v>
+      </c>
+      <c r="E2">
+        <v>40228361</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -583,20 +604,20 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13160908</v>
+      </c>
+      <c r="E3">
+        <v>13160908</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -611,6 +632,102 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
     </row>

--- a/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
+++ b/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Items\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849036F5-CDBB-4F1A-800C-48A27B47DF09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7066B0B6-494D-4677-A464-9778DB6EEF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>SKU</t>
   </si>
@@ -80,46 +80,112 @@
     <t>Purchase CF</t>
   </si>
   <si>
-    <t>3-66</t>
-  </si>
-  <si>
-    <t>7-110</t>
-  </si>
-  <si>
-    <t>25-113</t>
-  </si>
-  <si>
-    <t>27-9</t>
-  </si>
-  <si>
-    <t>27-10</t>
-  </si>
-  <si>
-    <t>IC card For PS800</t>
-  </si>
-  <si>
-    <t>Cooling fan case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saw blade For wooden </t>
-  </si>
-  <si>
-    <t>GARMENT NEEDLE FEED</t>
-  </si>
-  <si>
-    <t>Presser Foot &amp; Joint &amp; Screw</t>
-  </si>
-  <si>
-    <t>A-86577 (Makita )</t>
-  </si>
-  <si>
-    <t>NIS-DSC246U-G</t>
-  </si>
-  <si>
-    <t>CHO-B1551-586-000</t>
-  </si>
-  <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>3-67</t>
+  </si>
+  <si>
+    <t>4-23</t>
+  </si>
+  <si>
+    <t>4-24</t>
+  </si>
+  <si>
+    <t>4-25</t>
+  </si>
+  <si>
+    <t>5-21</t>
+  </si>
+  <si>
+    <t>5-22</t>
+  </si>
+  <si>
+    <t>5-23</t>
+  </si>
+  <si>
+    <t>6-72</t>
+  </si>
+  <si>
+    <t>6-73</t>
+  </si>
+  <si>
+    <t>7-111</t>
+  </si>
+  <si>
+    <t>25-134</t>
+  </si>
+  <si>
+    <t>43-37</t>
+  </si>
+  <si>
+    <t>43-38</t>
+  </si>
+  <si>
+    <t>SM4850455SP</t>
+  </si>
+  <si>
+    <t>FL020312</t>
+  </si>
+  <si>
+    <t>JK020202 (4213020170)</t>
+  </si>
+  <si>
+    <t>FL020314</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Size 1.5</t>
+  </si>
+  <si>
+    <t>Size #6 x1'3/4</t>
+  </si>
+  <si>
+    <t>470μF 50V</t>
+  </si>
+  <si>
+    <t>5W 30RJ</t>
+  </si>
+  <si>
+    <t>Shuttle 40089365</t>
+  </si>
+  <si>
+    <t>Rear needle guard 40052924</t>
+  </si>
+  <si>
+    <t>Front NDL Guard  13334701</t>
+  </si>
+  <si>
+    <t>Screw  SM4850455SP</t>
+  </si>
+  <si>
+    <t>Handle cpl FL020312</t>
+  </si>
+  <si>
+    <t>Contactor cpl JK020202 (4213020170)</t>
+  </si>
+  <si>
+    <t>Handle base cpl.2003 FL020314</t>
+  </si>
+  <si>
+    <t>Glue Epoxy   AB</t>
+  </si>
+  <si>
+    <t>Hexagonal Driver Size 1.5</t>
+  </si>
+  <si>
+    <t>Looper cover bracket 13100805</t>
+  </si>
+  <si>
+    <t>Screw  Size #6 x1'3/4</t>
+  </si>
+  <si>
+    <t>Capacitor 470μF 50V</t>
+  </si>
+  <si>
+    <t>Resistance 5W 30RJ</t>
   </si>
 </sst>
 </file>
@@ -171,7 +237,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -196,15 +265,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O6" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O14" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="15">
-    <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="2"/>
     <tableColumn id="16" xr3:uid="{D908201F-7F52-4EE2-BB50-EC4F5D942D16}" name="SKU1"/>
     <tableColumn id="5" xr3:uid="{5640FECF-A8D7-46BB-91F5-E72178177173}" name="ItemName"/>
-    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code"/>
     <tableColumn id="8" xr3:uid="{DE091E02-DD7D-43F9-9F96-1231B66D170D}" name="Mfg Model"/>
-    <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N"/>
+    <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{2E5F28F9-4BE7-4B7A-8002-1D6473B9BC8C}" name="Type"/>
     <tableColumn id="11" xr3:uid="{A2F8C9BB-EEBA-475B-AC76-DAB951DE0238}" name="Group"/>
     <tableColumn id="12" xr3:uid="{A00F2A1D-DCE4-4566-A249-45944D9AFE1B}" name="HS Code"/>
@@ -505,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBC371-E2D8-4342-8539-7DF09C777E3F}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -573,19 +642,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
-        <v>40228361</v>
+        <v>40089365</v>
       </c>
       <c r="E2">
-        <v>40228361</v>
+        <v>40089365</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -605,19 +674,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3">
-        <v>13160908</v>
+        <v>40052924</v>
       </c>
       <c r="E3">
-        <v>13160908</v>
+        <v>40052924</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -637,19 +706,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13334701</v>
+      </c>
+      <c r="E4">
+        <v>13334701</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -669,19 +738,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -701,33 +770,289 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13100805</v>
+      </c>
+      <c r="E11">
+        <v>13100805</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
     </row>

--- a/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
+++ b/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Items\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7066B0B6-494D-4677-A464-9778DB6EEF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B14C1-BEB3-4187-B8F7-616F6B84BE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>SKU</t>
   </si>
@@ -80,112 +80,145 @@
     <t>Purchase CF</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>3-67</t>
-  </si>
-  <si>
-    <t>4-23</t>
-  </si>
-  <si>
-    <t>4-24</t>
-  </si>
-  <si>
-    <t>4-25</t>
-  </si>
-  <si>
-    <t>5-21</t>
-  </si>
-  <si>
-    <t>5-22</t>
-  </si>
-  <si>
-    <t>5-23</t>
-  </si>
-  <si>
-    <t>6-72</t>
-  </si>
-  <si>
-    <t>6-73</t>
-  </si>
-  <si>
-    <t>7-111</t>
-  </si>
-  <si>
-    <t>25-134</t>
-  </si>
-  <si>
-    <t>43-37</t>
-  </si>
-  <si>
-    <t>43-38</t>
-  </si>
-  <si>
-    <t>SM4850455SP</t>
-  </si>
-  <si>
-    <t>FL020312</t>
-  </si>
-  <si>
-    <t>JK020202 (4213020170)</t>
-  </si>
-  <si>
-    <t>FL020314</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Size 1.5</t>
-  </si>
-  <si>
-    <t>Size #6 x1'3/4</t>
-  </si>
-  <si>
-    <t>470μF 50V</t>
-  </si>
-  <si>
-    <t>5W 30RJ</t>
-  </si>
-  <si>
-    <t>Shuttle 40089365</t>
-  </si>
-  <si>
-    <t>Rear needle guard 40052924</t>
-  </si>
-  <si>
-    <t>Front NDL Guard  13334701</t>
-  </si>
-  <si>
-    <t>Screw  SM4850455SP</t>
-  </si>
-  <si>
-    <t>Handle cpl FL020312</t>
-  </si>
-  <si>
-    <t>Contactor cpl JK020202 (4213020170)</t>
-  </si>
-  <si>
-    <t>Handle base cpl.2003 FL020314</t>
-  </si>
-  <si>
-    <t>Glue Epoxy   AB</t>
-  </si>
-  <si>
-    <t>Hexagonal Driver Size 1.5</t>
-  </si>
-  <si>
-    <t>Looper cover bracket 13100805</t>
-  </si>
-  <si>
-    <t>Screw  Size #6 x1'3/4</t>
-  </si>
-  <si>
-    <t>Capacitor 470μF 50V</t>
-  </si>
-  <si>
-    <t>Resistance 5W 30RJ</t>
+    <t>Policy Board for PS800</t>
+  </si>
+  <si>
+    <t>Screw for PS800</t>
+  </si>
+  <si>
+    <t>Schneider 16A</t>
+  </si>
+  <si>
+    <t>VACUUM SPONGE PAD</t>
+  </si>
+  <si>
+    <t>Puller cover(20-4)</t>
+  </si>
+  <si>
+    <t>cover (01-05)</t>
+  </si>
+  <si>
+    <t>cover (01-06)</t>
+  </si>
+  <si>
+    <t>Sensor  D-M9P</t>
+  </si>
+  <si>
+    <t>Stopper Plate</t>
+  </si>
+  <si>
+    <t>Bearing 6001 ZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metter count </t>
+  </si>
+  <si>
+    <t>Metter count (TRUMETER) for Fabric roller machine</t>
+  </si>
+  <si>
+    <t>Encoder  for Fabric roller machine</t>
+  </si>
+  <si>
+    <t>APTOMAT</t>
+  </si>
+  <si>
+    <t>10x1.3x7MM</t>
+  </si>
+  <si>
+    <t>21-934</t>
+  </si>
+  <si>
+    <t>21-935</t>
+  </si>
+  <si>
+    <t>D-M9P</t>
+  </si>
+  <si>
+    <t>6001 ZE</t>
+  </si>
+  <si>
+    <t>CONCH PLsz</t>
+  </si>
+  <si>
+    <t>CONCH (as picture)</t>
+  </si>
+  <si>
+    <t>8005.0.B (aspicture)</t>
+  </si>
+  <si>
+    <t>3812 (as picture)</t>
+  </si>
+  <si>
+    <t>JUKI PS 800</t>
+  </si>
+  <si>
+    <t>VEIT for Bonding section (Schneider )</t>
+  </si>
+  <si>
+    <t>VEIT for Bonding section ( HOANGHA)</t>
+  </si>
+  <si>
+    <t>KANSAI need urgent</t>
+  </si>
+  <si>
+    <t>Parts for make IE</t>
+  </si>
+  <si>
+    <t>MEB-3200J JUKI</t>
+  </si>
+  <si>
+    <t>DENMARK spreader machine for Cutting</t>
+  </si>
+  <si>
+    <t>Quilting Machine</t>
+  </si>
+  <si>
+    <t>Fabric roller machine</t>
+  </si>
+  <si>
+    <t>3-68</t>
+  </si>
+  <si>
+    <t>3-69</t>
+  </si>
+  <si>
+    <t>5-24</t>
+  </si>
+  <si>
+    <t>5-25</t>
+  </si>
+  <si>
+    <t>11-62</t>
+  </si>
+  <si>
+    <t>11-63</t>
+  </si>
+  <si>
+    <t>11-64</t>
+  </si>
+  <si>
+    <t>14-138</t>
+  </si>
+  <si>
+    <t>17-28</t>
+  </si>
+  <si>
+    <t>33-76</t>
+  </si>
+  <si>
+    <t>43-39</t>
+  </si>
+  <si>
+    <t>43-40</t>
+  </si>
+  <si>
+    <t>43-41</t>
+  </si>
+  <si>
+    <t>43-42</t>
   </si>
 </sst>
 </file>
@@ -224,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -233,17 +266,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -265,15 +308,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O14" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O15" totalsRowShown="0" headerRowDxfId="4">
   <tableColumns count="15">
-    <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{D908201F-7F52-4EE2-BB50-EC4F5D942D16}" name="SKU1"/>
     <tableColumn id="5" xr3:uid="{5640FECF-A8D7-46BB-91F5-E72178177173}" name="ItemName"/>
     <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code"/>
+    <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{DE091E02-DD7D-43F9-9F96-1231B66D170D}" name="Mfg Model"/>
-    <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{2E5F28F9-4BE7-4B7A-8002-1D6473B9BC8C}" name="Type"/>
     <tableColumn id="11" xr3:uid="{A2F8C9BB-EEBA-475B-AC76-DAB951DE0238}" name="Group"/>
     <tableColumn id="12" xr3:uid="{A00F2A1D-DCE4-4566-A249-45944D9AFE1B}" name="HS Code"/>
@@ -574,20 +617,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBC371-E2D8-4342-8539-7DF09C777E3F}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1" outlineLevel="1"/>
@@ -606,7 +649,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -642,19 +685,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3">
-        <v>40089365</v>
-      </c>
-      <c r="E2">
-        <v>40089365</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
+        <v>40228168</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -674,19 +715,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
+        <v>40228609</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="3">
-        <v>40052924</v>
-      </c>
-      <c r="E3">
-        <v>40052924</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -706,19 +745,17 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="3">
-        <v>13334701</v>
-      </c>
-      <c r="E4">
-        <v>13334701</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -738,19 +775,17 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -770,19 +805,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
+        <v>2010</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -802,19 +835,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -834,19 +865,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -866,19 +895,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -898,19 +925,17 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6">
+        <v>32021008</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -930,19 +955,17 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3">
-        <v>13100805</v>
-      </c>
-      <c r="E11">
-        <v>13100805</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -962,19 +985,17 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -994,19 +1015,17 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1026,33 +1045,62 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
     </row>

--- a/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
+++ b/module/Inventory/test/InventoryTest/Data/ItemUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Items\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B14C1-BEB3-4187-B8F7-616F6B84BE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F67F02D-1945-4B39-9925-9C52EAC1DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>SKU</t>
   </si>
@@ -80,145 +80,115 @@
     <t>Purchase CF</t>
   </si>
   <si>
-    <t>Policy Board for PS800</t>
-  </si>
-  <si>
-    <t>Screw for PS800</t>
-  </si>
-  <si>
-    <t>Schneider 16A</t>
-  </si>
-  <si>
-    <t>VACUUM SPONGE PAD</t>
-  </si>
-  <si>
-    <t>Puller cover(20-4)</t>
-  </si>
-  <si>
-    <t>cover (01-05)</t>
-  </si>
-  <si>
-    <t>cover (01-06)</t>
-  </si>
-  <si>
-    <t>Sensor  D-M9P</t>
-  </si>
-  <si>
-    <t>Stopper Plate</t>
-  </si>
-  <si>
-    <t>Bearing 6001 ZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metter count </t>
-  </si>
-  <si>
-    <t>Metter count (TRUMETER) for Fabric roller machine</t>
-  </si>
-  <si>
-    <t>Encoder  for Fabric roller machine</t>
-  </si>
-  <si>
-    <t>APTOMAT</t>
-  </si>
-  <si>
-    <t>10x1.3x7MM</t>
-  </si>
-  <si>
-    <t>21-934</t>
-  </si>
-  <si>
-    <t>21-935</t>
-  </si>
-  <si>
-    <t>D-M9P</t>
-  </si>
-  <si>
-    <t>6001 ZE</t>
-  </si>
-  <si>
-    <t>CONCH PLsz</t>
-  </si>
-  <si>
-    <t>CONCH (as picture)</t>
-  </si>
-  <si>
-    <t>8005.0.B (aspicture)</t>
-  </si>
-  <si>
-    <t>3812 (as picture)</t>
-  </si>
-  <si>
-    <t>JUKI PS 800</t>
-  </si>
-  <si>
-    <t>VEIT for Bonding section (Schneider )</t>
-  </si>
-  <si>
-    <t>VEIT for Bonding section ( HOANGHA)</t>
-  </si>
-  <si>
-    <t>KANSAI need urgent</t>
-  </si>
-  <si>
-    <t>Parts for make IE</t>
-  </si>
-  <si>
-    <t>MEB-3200J JUKI</t>
-  </si>
-  <si>
-    <t>DENMARK spreader machine for Cutting</t>
-  </si>
-  <si>
-    <t>Quilting Machine</t>
-  </si>
-  <si>
-    <t>Fabric roller machine</t>
-  </si>
-  <si>
-    <t>3-68</t>
-  </si>
-  <si>
-    <t>3-69</t>
-  </si>
-  <si>
-    <t>5-24</t>
-  </si>
-  <si>
-    <t>5-25</t>
-  </si>
-  <si>
-    <t>11-62</t>
-  </si>
-  <si>
-    <t>11-63</t>
-  </si>
-  <si>
-    <t>11-64</t>
-  </si>
-  <si>
-    <t>14-138</t>
-  </si>
-  <si>
-    <t>17-28</t>
-  </si>
-  <si>
-    <t>33-76</t>
-  </si>
-  <si>
-    <t>43-39</t>
-  </si>
-  <si>
-    <t>43-40</t>
-  </si>
-  <si>
-    <t>43-41</t>
-  </si>
-  <si>
-    <t>43-42</t>
+    <t>2-63</t>
+  </si>
+  <si>
+    <t>3-70</t>
+  </si>
+  <si>
+    <t>3-71</t>
+  </si>
+  <si>
+    <t>3-72</t>
+  </si>
+  <si>
+    <t>3-73</t>
+  </si>
+  <si>
+    <t>3-74</t>
+  </si>
+  <si>
+    <t>3-75</t>
+  </si>
+  <si>
+    <t>3-76</t>
+  </si>
+  <si>
+    <t>4-27</t>
+  </si>
+  <si>
+    <t>11-65</t>
+  </si>
+  <si>
+    <t>14-139</t>
+  </si>
+  <si>
+    <t>22-10</t>
+  </si>
+  <si>
+    <t>23-65</t>
+  </si>
+  <si>
+    <t>Servo Motor 550W</t>
+  </si>
+  <si>
+    <t>Needle Rod Metal</t>
+  </si>
+  <si>
+    <t>Needle Rod Lower Metal</t>
+  </si>
+  <si>
+    <t>Thread take up compl</t>
+  </si>
+  <si>
+    <t>needle bar shread guide H</t>
+  </si>
+  <si>
+    <t>Insulation Sheet</t>
+  </si>
+  <si>
+    <t>Panel PCB Assy</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>SM80304412TP</t>
+  </si>
+  <si>
+    <t>Preser foot guide</t>
+  </si>
+  <si>
+    <t>Table top (without stand) Thailand</t>
+  </si>
+  <si>
+    <t>For DLR-1508PR</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>10000µF  (M) 63V</t>
+  </si>
+  <si>
+    <t>Bobbin case ASM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Foot </t>
+  </si>
+  <si>
+    <t>SP18-NF 3/32 L(YIHSHIN)</t>
+  </si>
+  <si>
+    <t>LH- 3588 AGF-7-WB JUKI</t>
+  </si>
+  <si>
+    <t>AMS- 210EN JUKI</t>
+  </si>
+  <si>
+    <t>MF- 7523 DC11 B64 JUKI</t>
+  </si>
+  <si>
+    <t>JUKI THAILAN</t>
+  </si>
+  <si>
+    <t>PARTS FOR MAKE IE (Urgent)</t>
+  </si>
+  <si>
+    <t>LHB-1790ANS JUKI</t>
+  </si>
+  <si>
+    <t>PRESSURE FOOT</t>
   </si>
 </sst>
 </file>
@@ -279,14 +249,14 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -308,15 +278,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O15" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64BF2867-61D6-4A40-A223-E1666DCBE16E}" name="Table134" displayName="Table134" ref="A1:O14" totalsRowShown="0" headerRowDxfId="4">
   <tableColumns count="15">
     <tableColumn id="3" xr3:uid="{98A723FB-B6D6-4CA9-B830-46D06CA83E50}" name="SKU" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{D908201F-7F52-4EE2-BB50-EC4F5D942D16}" name="SKU1"/>
     <tableColumn id="5" xr3:uid="{5640FECF-A8D7-46BB-91F5-E72178177173}" name="ItemName"/>
-    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{FB9204F1-33A0-4BFB-8FB3-A90A737A1696}" name="ItemName1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3210E969-D321-458C-8AB3-EF5A7466E19F}" name="Mfg Code" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{DE091E02-DD7D-43F9-9F96-1231B66D170D}" name="Mfg Model"/>
-    <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7A3669CD-3BC8-4B10-A19F-650BD00A895F}" name="Mfg S/N" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{2E5F28F9-4BE7-4B7A-8002-1D6473B9BC8C}" name="Type"/>
     <tableColumn id="11" xr3:uid="{A2F8C9BB-EEBA-475B-AC76-DAB951DE0238}" name="Group"/>
     <tableColumn id="12" xr3:uid="{A00F2A1D-DCE4-4566-A249-45944D9AFE1B}" name="HS Code"/>
@@ -617,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBC371-E2D8-4342-8539-7DF09C777E3F}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H13" sqref="H13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -685,23 +655,25 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40091227</v>
+      </c>
       <c r="E2" s="6">
-        <v>40228168</v>
+        <v>40091227</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -715,23 +687,26 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40077604</v>
+      </c>
       <c r="E3" s="6">
-        <v>40228609</v>
+        <v>40077604</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -745,23 +720,26 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40077606</v>
+      </c>
+      <c r="E4" s="6">
+        <v>40077606</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -775,23 +753,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40078382</v>
+      </c>
+      <c r="E5" s="6">
+        <v>40078382</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -805,23 +786,26 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40026884</v>
+      </c>
       <c r="E6" s="6">
-        <v>2010</v>
+        <v>40026884</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -835,23 +819,26 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40078168</v>
+      </c>
+      <c r="E7" s="6">
+        <v>40078168</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,23 +852,26 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40083960</v>
+      </c>
+      <c r="E8" s="6">
+        <v>40083960</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -895,23 +885,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -925,23 +918,26 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40070231</v>
+      </c>
       <c r="E10" s="6">
-        <v>32021008</v>
+        <v>40070231</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -955,23 +951,26 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -985,23 +984,26 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1015,23 +1017,26 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13729769</v>
+      </c>
+      <c r="E13" s="6">
+        <v>13729769</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1045,23 +1050,26 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1070,37 +1078,6 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
         <v>1</v>
       </c>
     </row>
